--- a/LM2ReadandList/NewListOut117.xlsx
+++ b/LM2ReadandList/NewListOut117.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00570\Desktop\GitHub\LM2ReadandList\LM2ReadandList\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138C3FA4-C4BA-428B-AAE9-5E98CD97C187}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="7380"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -48,8 +54,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,7 +115,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="16"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -296,6 +302,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -303,39 +342,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -350,11 +356,19 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="2"/>
-    <cellStyle name="一般 3" xfId="1"/>
+    <cellStyle name="一般 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -369,13 +383,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>433004</xdr:colOff>
+      <xdr:colOff>436814</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>66414</xdr:rowOff>
+      <xdr:rowOff>56889</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1" descr="logo白底黑字.png"/>
+        <xdr:cNvPr id="2" name="圖片 1" descr="logo白底黑字.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -407,13 +427,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>461579</xdr:colOff>
+      <xdr:colOff>473009</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114039</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="圖片 3" descr="logo白底黑字.png"/>
+        <xdr:cNvPr id="4" name="圖片 3" descr="logo白底黑字.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -445,13 +471,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>433004</xdr:colOff>
+      <xdr:colOff>436814</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>66414</xdr:rowOff>
+      <xdr:rowOff>56889</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4" descr="logo白底黑字.png"/>
+        <xdr:cNvPr id="5" name="圖片 4" descr="logo白底黑字.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -483,13 +515,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>461579</xdr:colOff>
+      <xdr:colOff>473009</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114039</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="圖片 5" descr="logo白底黑字.png"/>
+        <xdr:cNvPr id="6" name="圖片 5" descr="logo白底黑字.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -558,7 +596,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,9 +628,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,6 +680,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -799,32 +873,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:J14"/>
+      <selection activeCell="I1" sqref="I1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="9.125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="5.25" style="1" customWidth="1"/>
-    <col min="20" max="27" width="8.625" style="1" customWidth="1"/>
+    <col min="1" max="18" width="9.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="5.21875" style="1" customWidth="1"/>
+    <col min="20" max="27" width="8.6640625" style="1" customWidth="1"/>
     <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="39.950000000000003" customHeight="1" thickBot="1">
+    <row r="1" spans="1:25" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="8"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="29"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
@@ -836,391 +910,391 @@
       <c r="Q1" s="30"/>
       <c r="R1" s="31"/>
     </row>
-    <row r="2" spans="1:25" ht="39.950000000000003" customHeight="1" thickBot="1">
+    <row r="2" spans="1:25" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="9"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="20"/>
-    </row>
-    <row r="3" spans="1:25" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="17"/>
+    </row>
+    <row r="3" spans="1:25" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="9"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20"/>
-    </row>
-    <row r="4" spans="1:25" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
+    </row>
+    <row r="4" spans="1:25" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="9"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="20"/>
-    </row>
-    <row r="5" spans="1:25" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A5" s="21" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="17"/>
+    </row>
+    <row r="5" spans="1:25" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="23"/>
-    </row>
-    <row r="6" spans="1:25" ht="30" customHeight="1" thickBot="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-    </row>
-    <row r="7" spans="1:25" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-    </row>
-    <row r="8" spans="1:25" ht="30" customHeight="1" thickBot="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-    </row>
-    <row r="9" spans="1:25" ht="30" customHeight="1" thickBot="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="20"/>
+    </row>
+    <row r="6" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+    </row>
+    <row r="7" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+    </row>
+    <row r="8" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+    </row>
+    <row r="9" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
       <c r="U9" s="12"/>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
     </row>
-    <row r="10" spans="1:25" ht="30" customHeight="1" thickBot="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
+    <row r="10" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
       <c r="V10" s="24"/>
       <c r="W10" s="11"/>
     </row>
-    <row r="11" spans="1:25" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
+    <row r="11" spans="1:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
     </row>
-    <row r="12" spans="1:25" ht="30" customHeight="1" thickBot="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-    </row>
-    <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-    </row>
-    <row r="14" spans="1:25" ht="30" customHeight="1" thickBot="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-    </row>
-    <row r="15" spans="1:25" ht="30" customHeight="1" thickBot="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-    </row>
-    <row r="16" spans="1:25" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-    </row>
-    <row r="17" spans="1:18" ht="30" customHeight="1" thickBot="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-    </row>
-    <row r="18" spans="1:18" ht="30" customHeight="1" thickBot="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-    </row>
-    <row r="19" spans="1:18" ht="37.5" customHeight="1" thickBot="1">
+    <row r="12" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+    </row>
+    <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+    </row>
+    <row r="14" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+    </row>
+    <row r="15" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+    </row>
+    <row r="16" spans="1:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+    </row>
+    <row r="17" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+    </row>
+    <row r="18" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+    </row>
+    <row r="19" spans="1:18" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="15" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="16"/>
+      <c r="J19" s="27"/>
       <c r="K19" s="14"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="16"/>
-    </row>
-    <row r="20" spans="1:18" ht="27">
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="27"/>
+    </row>
+    <row r="20" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -1233,7 +1307,7 @@
       <c r="J20" s="24"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:18" ht="27">
+    <row r="21" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -1246,7 +1320,7 @@
       <c r="J21" s="24"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="1:18" ht="27">
+    <row r="22" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
@@ -1259,7 +1333,7 @@
       <c r="J22" s="24"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:18" ht="27">
+    <row r="23" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -1274,117 +1348,26 @@
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="I19:J19"/>
@@ -1408,26 +1391,117 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="A5:R5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/LM2ReadandList/NewListOut117.xlsx
+++ b/LM2ReadandList/NewListOut117.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00570\Desktop\GitHub\LM2ReadandList\LM2ReadandList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIS-Kung\Desktop\github\LM2ReadandList\LM2ReadandList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138C3FA4-C4BA-428B-AAE9-5E98CD97C187}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EFAE95-AAD7-40D5-88BA-42ED1041BD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -256,13 +256,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -275,32 +272,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -311,39 +329,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -351,6 +336,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,9 +557,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -594,9 +597,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,26 +632,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -681,26 +667,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -874,500 +843,582 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:R1"/>
+      <selection activeCell="I2" sqref="I2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="9.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="5.21875" style="1" customWidth="1"/>
-    <col min="20" max="27" width="8.6640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="1"/>
+    <col min="1" max="18" width="9.109375" customWidth="1"/>
+    <col min="19" max="19" width="5.21875" customWidth="1"/>
+    <col min="20" max="27" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="15" t="s">
+    <row r="1" spans="1:23" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="31"/>
-    </row>
-    <row r="2" spans="1:25" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="15" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="26"/>
+    </row>
+    <row r="2" spans="1:23" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="17"/>
-    </row>
-    <row r="3" spans="1:25" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="15" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+    </row>
+    <row r="3" spans="1:23" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17"/>
-    </row>
-    <row r="4" spans="1:25" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="15" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="23"/>
+    </row>
+    <row r="4" spans="1:23" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="17"/>
-    </row>
-    <row r="5" spans="1:25" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="23"/>
+    </row>
+    <row r="5" spans="1:23" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
-    </row>
-    <row r="6" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-    </row>
-    <row r="7" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-    </row>
-    <row r="8" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-    </row>
-    <row r="9" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-    </row>
-    <row r="10" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="11"/>
-    </row>
-    <row r="11" spans="1:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-    </row>
-    <row r="12" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-    </row>
-    <row r="13" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-    </row>
-    <row r="14" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-    </row>
-    <row r="15" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-    </row>
-    <row r="16" spans="1:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
+    </row>
+    <row r="6" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+    </row>
+    <row r="7" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+    </row>
+    <row r="8" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+    </row>
+    <row r="9" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="10"/>
+    </row>
+    <row r="10" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="9"/>
+    </row>
+    <row r="11" spans="1:23" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+    </row>
+    <row r="12" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+    </row>
+    <row r="13" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+    </row>
+    <row r="14" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+    </row>
+    <row r="15" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="1:23" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
     </row>
     <row r="17" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
     </row>
     <row r="18" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
     </row>
     <row r="19" spans="1:18" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="26" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="27"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="15"/>
     </row>
     <row r="20" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="Q20" s="10"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="Q21" s="10"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="Q22" s="10"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="Q23" s="10"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="I19:J19"/>
@@ -1391,117 +1442,26 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
